--- a/templates/kontur.xlsx
+++ b/templates/kontur.xlsx
@@ -1760,7 +1760,7 @@
     <row r="10" s="101">
       <c r="B10" s="125" t="inlineStr">
         <is>
-          <t>Счет на оплату № 1.11.12.2032-C от 11 Декабря 2032 г.</t>
+          <t>Счет на оплату № 1.19.10.2024-C от 19 Октября 2024 г.</t>
         </is>
       </c>
     </row>
@@ -1922,7 +1922,7 @@
       </c>
       <c r="G16" s="130" t="inlineStr">
         <is>
-          <t>Вьвьаиатовлыты</t>
+          <t>asdads</t>
         </is>
       </c>
       <c r="AR16" s="103" t="n"/>
@@ -1930,7 +1930,7 @@
     <row r="17" customFormat="1" s="100">
       <c r="G17" s="131" t="inlineStr">
         <is>
-          <t>ИНН 20394040440</t>
+          <t>ИНН 233</t>
         </is>
       </c>
     </row>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="G19" s="133" t="inlineStr">
         <is>
-          <t>Договор № 1.12/12/12 от 12 Декабря 2012 г.</t>
+          <t>Договор № 1.12/12/87 от 12 Декабря 2012 г.</t>
         </is>
       </c>
       <c r="AR19" s="103" t="n"/>
@@ -2076,7 +2076,7 @@
       <c r="C22" s="140" t="n"/>
       <c r="D22" s="141" t="inlineStr">
         <is>
-          <t>Аоао оаоаоала</t>
+          <t>asd</t>
         </is>
       </c>
       <c r="E22" s="142" t="n"/>
@@ -2112,15 +2112,19 @@
       </c>
       <c r="AD22" s="142" t="n"/>
       <c r="AE22" s="140" t="n"/>
-      <c r="AF22" s="145" t="n">
-        <v>484938.34</v>
+      <c r="AF22" s="145" t="inlineStr">
+        <is>
+          <t>21 120.33 ₽</t>
+        </is>
       </c>
       <c r="AG22" s="142" t="n"/>
       <c r="AH22" s="142" t="n"/>
       <c r="AI22" s="142" t="n"/>
       <c r="AJ22" s="140" t="n"/>
-      <c r="AK22" s="146" t="n">
-        <v>484938.34</v>
+      <c r="AK22" s="146" t="inlineStr">
+        <is>
+          <t>21 120.33 ₽</t>
+        </is>
       </c>
       <c r="AL22" s="142" t="n"/>
       <c r="AM22" s="142" t="n"/>
@@ -2193,8 +2197,10 @@
           <t>154523.86</t>
         </is>
       </c>
-      <c r="AL26" s="151" t="n">
-        <v>484938.34</v>
+      <c r="AL26" s="151" t="inlineStr">
+        <is>
+          <t>21 120.33 ₽</t>
+        </is>
       </c>
       <c r="AR26" s="103" t="n"/>
     </row>
@@ -2214,7 +2220,7 @@
     <row r="29" s="101">
       <c r="B29" s="152" t="inlineStr">
         <is>
-          <t>Всего наименований 1, на сумму 484 938,34 руб.</t>
+          <t>Всего наименований 1, на сумму 21 120,33 руб.</t>
         </is>
       </c>
       <c r="AR29" s="153" t="n"/>
@@ -2222,7 +2228,7 @@
     <row r="30" s="101">
       <c r="B30" s="154" t="inlineStr">
         <is>
-          <t>Четыреста восемьдесят четыре тысячи девятьсот тридцать восемь рублей 34 копейки</t>
+          <t>Двадцать одна тысяча сто двадцать рублей 33 копейки</t>
         </is>
       </c>
       <c r="AQ30" s="103" t="n"/>

--- a/templates/kontur.xlsx
+++ b/templates/kontur.xlsx
@@ -1760,7 +1760,7 @@
     <row r="10" s="101">
       <c r="B10" s="125" t="inlineStr">
         <is>
-          <t>Счет на оплату № 1.19.10.2024-C от 19 Октября 2024 г.</t>
+          <t>Счет на оплату № 1.01.10.2024-C от 1 Октября 2024 г.</t>
         </is>
       </c>
     </row>
@@ -1922,7 +1922,7 @@
       </c>
       <c r="G16" s="130" t="inlineStr">
         <is>
-          <t>asdads</t>
+          <t>asd</t>
         </is>
       </c>
       <c r="AR16" s="103" t="n"/>
@@ -1930,7 +1930,7 @@
     <row r="17" customFormat="1" s="100">
       <c r="G17" s="131" t="inlineStr">
         <is>
-          <t>ИНН 233</t>
+          <t>ИНН 123</t>
         </is>
       </c>
     </row>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="G19" s="133" t="inlineStr">
         <is>
-          <t>Договор № 1.12/12/87 от 12 Декабря 2012 г.</t>
+          <t>Договор № 1.23/12/23 от 23 Декабря 2023 г.</t>
         </is>
       </c>
       <c r="AR19" s="103" t="n"/>
@@ -2114,7 +2114,7 @@
       <c r="AE22" s="140" t="n"/>
       <c r="AF22" s="145" t="inlineStr">
         <is>
-          <t>21 120.33 ₽</t>
+          <t>123 321.00 ₽</t>
         </is>
       </c>
       <c r="AG22" s="142" t="n"/>
@@ -2123,7 +2123,7 @@
       <c r="AJ22" s="140" t="n"/>
       <c r="AK22" s="146" t="inlineStr">
         <is>
-          <t>21 120.33 ₽</t>
+          <t>123 321.00 ₽</t>
         </is>
       </c>
       <c r="AL22" s="142" t="n"/>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="AL26" s="151" t="inlineStr">
         <is>
-          <t>21 120.33 ₽</t>
+          <t>123 321.00 ₽</t>
         </is>
       </c>
       <c r="AR26" s="103" t="n"/>
@@ -2220,7 +2220,7 @@
     <row r="29" s="101">
       <c r="B29" s="152" t="inlineStr">
         <is>
-          <t>Всего наименований 1, на сумму 21 120,33 руб.</t>
+          <t>Всего наименований 1, на сумму 123 321,00 руб.</t>
         </is>
       </c>
       <c r="AR29" s="153" t="n"/>
@@ -2228,7 +2228,7 @@
     <row r="30" s="101">
       <c r="B30" s="154" t="inlineStr">
         <is>
-          <t>Двадцать одна тысяча сто двадцать рублей 33 копейки</t>
+          <t>Сто двадцать три тысячи триста двадцать один рубль 00 копеек</t>
         </is>
       </c>
       <c r="AQ30" s="103" t="n"/>
